--- a/backend/נתמכים.xlsx
+++ b/backend/נתמכים.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\shalom\Gmah\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\shalom\Gmah\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86810359-8601-4520-928A-F65B703A7702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82FCF3D-2DEA-4A6C-8FBC-BD5ED0802422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
+    <sheet name="נתמכים" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -43,10 +43,10 @@
     <t>מס' פלאפון</t>
   </si>
   <si>
+    <t>נהג במקור</t>
+  </si>
+  <si>
     <t>ממליץ</t>
-  </si>
-  <si>
-    <t>נהג במקור</t>
   </si>
   <si>
     <t>הערות</t>
@@ -67,8 +67,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,14 +95,8 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF212A34"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,42 +115,12 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -178,387 +142,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="שורת נתמך" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF3F3F3F"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF3F3F3F"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF3F3F3F"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF3F3F3F"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF212A34"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF3F3F3F"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <border outline="0">
         <top style="thin">
@@ -568,34 +196,17 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
-        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="0"/>
         <name val="Calibri"/>
         <family val="2"/>
-        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -603,10 +214,36 @@
           <bgColor theme="4"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="1" defaultTableStyle="טבלת הנתמכים" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="טבלת הנתמכים" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="wholeTable" dxfId="2"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -618,39 +255,25 @@
 </styleSheet>
 </file>
 
-<file path=xl/namedSheetViews/namedSheetView1.xml><?xml version="1.0" encoding="utf-8"?>
-<namedSheetViews xmlns="http://schemas.microsoft.com/office/spreadsheetml/2019/namedsheetviews" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <namedSheetView name="תצוגה1" id="{311A79E2-283D-4903-8EA8-61DA37E89365}">
-    <nsvFilter filterId="{DDA41B58-05F1-4DAD-BD37-FB6F6D4F545F}" ref="A1:J2" tableId="2">
-      <sortRules>
-        <sortRule colId="7" id="{F30B4B10-CCE7-4437-9CB9-C3900891947A}">
-          <sortCondition ref="H1:H2"/>
-        </sortRule>
-      </sortRules>
-    </nsvFilter>
-  </namedSheetView>
-</namedSheetViews>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DDA41B58-05F1-4DAD-BD37-FB6F6D4F545F}" name="טבלה2" displayName="טבלה2" ref="A1:J2" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
-  <autoFilter ref="A1:J2" xr:uid="{DDA41B58-05F1-4DAD-BD37-FB6F6D4F545F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="נתמכים" displayName="נתמכים" ref="A1:J2" headerRowDxfId="1" tableBorderDxfId="0" dataCellStyle="שורת נתמך">
+  <autoFilter ref="A1:J2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J2">
     <sortCondition ref="I1:I2"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{BA4BCF49-9E01-45A6-986B-44F290E02B46}" name="שם מלא" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{8524A617-99B1-43E5-B281-D785867CDAAE}" name="רחוב" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{777C2E27-C7EE-4DEE-AA71-57B91FAD41E5}" name="בניין" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{AD058636-1948-447B-8A82-23923820D6AC}" name="דירה" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{CA9CD7CE-0BF1-4B35-861E-94FAC591273E}" name="קומה" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{13E4C2BC-EF73-406F-8109-1C5B0A52390E}" name="מס' בית" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{46144285-8ABE-46F9-8B5A-7EA024BC220C}" name="מס' פלאפון" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{F30B4B10-CCE7-4437-9CB9-C3900891947A}" name="נהג במקור" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{1C7A9C01-0C79-437C-83BE-3A18E626744A}" name="ממליץ" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{3A517DDA-AF93-4EF2-8038-20E0822BAFE2}" name="הערות" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="שם מלא" totalsRowLabel="סה&quot;כ" dataCellStyle="שורת נתמך"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="רחוב" dataCellStyle="שורת נתמך"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="בניין" dataCellStyle="שורת נתמך"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="דירה" dataCellStyle="שורת נתמך"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="קומה" dataCellStyle="שורת נתמך"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="מס' בית" dataCellStyle="שורת נתמך"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="מס' פלאפון" dataCellStyle="שורת נתמך"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="נהג במקור" dataCellStyle="שורת נתמך"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="ממליץ" dataCellStyle="שורת נתמך"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="הערות" totalsRowFunction="count" dataCellStyle="שורת נתמך"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="טבלת הנתמכים" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -954,27 +577,28 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="8.796875" style="4"/>
+    <col min="3" max="5" width="8.796875" style="4" customWidth="1"/>
     <col min="6" max="6" width="11" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.3984375" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.796875" style="4"/>
+    <col min="11" max="11" width="8.796875" style="4" customWidth="1"/>
     <col min="12" max="12" width="12.69921875" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.796875" style="4"/>
+    <col min="14" max="25" width="8.796875" style="4" customWidth="1"/>
+    <col min="26" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -996,12 +620,12 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1009,33 +633,31 @@
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="5">
         <v>10</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="5">
         <v>1</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="5">
         <v>0</v>
       </c>
-      <c r="F2" s="8"/>
+      <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="9"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I2">
-    <sortCondition ref="A2"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/backend/נתמכים.xlsx
+++ b/backend/נתמכים.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\shalom\Gmah\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82FCF3D-2DEA-4A6C-8FBC-BD5ED0802422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2E79ED-D0A9-4183-BCCC-92E6EF343970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>שם מלא</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>נחום</t>
+  </si>
+  <si>
+    <t>נהג</t>
+  </si>
+  <si>
+    <t>פלוני</t>
   </si>
 </sst>
 </file>
@@ -256,12 +262,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="נתמכים" displayName="נתמכים" ref="A1:J2" headerRowDxfId="1" tableBorderDxfId="0" dataCellStyle="שורת נתמך">
-  <autoFilter ref="A1:J2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J2">
-    <sortCondition ref="I1:I2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="נתמכים" displayName="נתמכים" ref="A1:K2" headerRowDxfId="1" tableBorderDxfId="0" dataCellStyle="שורת נתמך">
+  <autoFilter ref="A1:K2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K2">
+    <sortCondition ref="J1:J2"/>
   </sortState>
-  <tableColumns count="10">
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="שם מלא" totalsRowLabel="סה&quot;כ" dataCellStyle="שורת נתמך"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="רחוב" dataCellStyle="שורת נתמך"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="בניין" dataCellStyle="שורת נתמך"/>
@@ -269,6 +275,7 @@
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="קומה" dataCellStyle="שורת נתמך"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="מס' בית" dataCellStyle="שורת נתמך"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="מס' פלאפון" dataCellStyle="שורת נתמך"/>
+    <tableColumn id="10" xr3:uid="{D6A2570F-6BEC-475E-8659-B642D346D4A3}" name="נהג" dataCellStyle="שורת נתמך"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="נהג במקור" dataCellStyle="שורת נתמך"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="ממליץ" dataCellStyle="שורת נתמך"/>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="הערות" totalsRowFunction="count" dataCellStyle="שורת נתמך"/>
@@ -574,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -587,17 +594,18 @@
     <col min="3" max="5" width="8.796875" style="4" customWidth="1"/>
     <col min="6" max="6" width="11" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.3984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.796875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="12.69921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="25" width="8.796875" style="4" customWidth="1"/>
-    <col min="26" max="16384" width="8.796875" style="4"/>
+    <col min="8" max="8" width="11.5" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.796875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="12.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="26" width="8.796875" style="4" customWidth="1"/>
+    <col min="27" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -620,16 +628,19 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -650,10 +661,13 @@
         <v>12</v>
       </c>
       <c r="H2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="5"/>
       <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/backend/נתמכים.xlsx
+++ b/backend/נתמכים.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\shalom\Gmah\backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\shalom\gmah\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2E79ED-D0A9-4183-BCCC-92E6EF343970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53B5BF6-FD52-4F5F-B340-AD1F49F440A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="נתמכים" sheetId="1" r:id="rId1"/>
@@ -43,6 +43,9 @@
     <t>מס' פלאפון</t>
   </si>
   <si>
+    <t>נהג</t>
+  </si>
+  <si>
     <t>נהג במקור</t>
   </si>
   <si>
@@ -61,13 +64,10 @@
     <t>054-4751400</t>
   </si>
   <si>
+    <t>פלוני</t>
+  </si>
+  <si>
     <t>נחום</t>
-  </si>
-  <si>
-    <t>נהג</t>
-  </si>
-  <si>
-    <t>פלוני</t>
   </si>
 </sst>
 </file>
@@ -78,7 +78,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -97,23 +97,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -149,43 +141,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="1"/>
+      <left style="medium">
+        <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color theme="1"/>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color theme="1"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color theme="1"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -275,7 +267,7 @@
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="קומה" dataCellStyle="שורת נתמך"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="מס' בית" dataCellStyle="שורת נתמך"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="מס' פלאפון" dataCellStyle="שורת נתמך"/>
-    <tableColumn id="10" xr3:uid="{D6A2570F-6BEC-475E-8659-B642D346D4A3}" name="נהג" dataCellStyle="שורת נתמך"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="נהג" dataCellStyle="שורת נתמך"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="נהג במקור" dataCellStyle="שורת נתמך"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="ממליץ" dataCellStyle="שורת נתמך"/>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="הערות" totalsRowFunction="count" dataCellStyle="שורת נתמך"/>
@@ -584,28 +576,28 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="8.796875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.20703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.47265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="8.7890625" style="4" customWidth="1"/>
     <col min="6" max="6" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.47265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.47265625" style="4" customWidth="1"/>
     <col min="9" max="9" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.3984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.796875" style="4" customWidth="1"/>
-    <col min="13" max="13" width="12.69921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="26" width="8.796875" style="4" customWidth="1"/>
-    <col min="27" max="16384" width="8.796875" style="4"/>
+    <col min="10" max="10" width="15.41796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7890625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7890625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="12.68359375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.20703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="27" width="8.7890625" style="4" customWidth="1"/>
+    <col min="28" max="16384" width="8.7890625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -628,24 +620,24 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="5">
         <v>10</v>
@@ -658,13 +650,13 @@
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>

--- a/backend/נתמכים.xlsx
+++ b/backend/נתמכים.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\shalom\gmah\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53B5BF6-FD52-4F5F-B340-AD1F49F440A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B275C6EE-D855-4801-BF19-6478A417A18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>שם מלא</t>
   </si>
@@ -46,9 +46,6 @@
     <t>נהג</t>
   </si>
   <si>
-    <t>נהג במקור</t>
-  </si>
-  <si>
     <t>ממליץ</t>
   </si>
   <si>
@@ -65,9 +62,6 @@
   </si>
   <si>
     <t>פלוני</t>
-  </si>
-  <si>
-    <t>נחום</t>
   </si>
 </sst>
 </file>
@@ -78,7 +72,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -254,12 +248,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="נתמכים" displayName="נתמכים" ref="A1:K2" headerRowDxfId="1" tableBorderDxfId="0" dataCellStyle="שורת נתמך">
-  <autoFilter ref="A1:K2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K2">
-    <sortCondition ref="J1:J2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="נתמכים" displayName="נתמכים" ref="A1:J2" headerRowDxfId="1" tableBorderDxfId="0" dataCellStyle="שורת נתמך">
+  <autoFilter ref="A1:J2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J2">
+    <sortCondition ref="I1:I2"/>
   </sortState>
-  <tableColumns count="11">
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="שם מלא" totalsRowLabel="סה&quot;כ" dataCellStyle="שורת נתמך"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="רחוב" dataCellStyle="שורת נתמך"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="בניין" dataCellStyle="שורת נתמך"/>
@@ -268,7 +262,6 @@
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="מס' בית" dataCellStyle="שורת נתמך"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="מס' פלאפון" dataCellStyle="שורת נתמך"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="נהג" dataCellStyle="שורת נתמך"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="נהג במקור" dataCellStyle="שורת נתמך"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="ממליץ" dataCellStyle="שורת נתמך"/>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="הערות" totalsRowFunction="count" dataCellStyle="שורת נתמך"/>
   </tableColumns>
@@ -573,31 +566,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.80859375" defaultRowHeight="14.4" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.20703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.47265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="8.7890625" style="4" customWidth="1"/>
+    <col min="3" max="5" width="8.80859375" style="4" customWidth="1"/>
     <col min="6" max="6" width="11" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.47265625" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.47265625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.41796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7890625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7890625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="12.68359375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.20703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="27" width="8.7890625" style="4" customWidth="1"/>
-    <col min="28" max="16384" width="8.7890625" style="4"/>
+    <col min="9" max="9" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.80859375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.80859375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.1875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="26" width="8.80859375" style="4" customWidth="1"/>
+    <col min="27" max="16384" width="8.80859375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -622,22 +614,19 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="C2" s="5">
         <v>10</v>
@@ -650,16 +639,13 @@
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
